--- a/数据库设计文档v1.2.xlsx
+++ b/数据库设计文档v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="826"/>
+    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表目录" sheetId="1" r:id="rId1"/>
@@ -220,43 +220,46 @@
     <t>id</t>
   </si>
   <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ID标识</t>
+  </si>
+  <si>
+    <t>topic_id</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>帖子ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>附件名称</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>nvarchar(510)</t>
+  </si>
+  <si>
+    <t>附件地址</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ID标识</t>
-  </si>
-  <si>
-    <t>topic_id</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>帖子ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>附件名称</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>nvarchar(510)</t>
-  </si>
-  <si>
-    <t>附件地址</t>
-  </si>
-  <si>
-    <t>point</t>
   </si>
   <si>
     <t>下载所需积分</t>
@@ -670,9 +673,6 @@
     <t>last_class_id</t>
   </si>
   <si>
-    <t>uniqueidentifier</t>
-  </si>
-  <si>
     <t>最后停留版块分类ID</t>
   </si>
   <si>
@@ -1117,11 +1117,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1186,14 +1186,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1269,22 +1269,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1701,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2040,7 +2040,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2078,7 +2078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2100,24 +2100,24 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>60</v>
@@ -2126,7 +2126,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -2134,16 +2134,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -2151,16 +2151,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
@@ -2168,16 +2168,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
@@ -2185,16 +2185,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:5">
@@ -2202,10 +2202,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -2222,7 +2222,7 @@
         <v>189</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -2236,21 +2236,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" ht="35.55" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:4">
@@ -2261,10 +2261,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>191</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2347,7 +2347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -2415,12 +2415,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>60</v>
@@ -2440,7 +2440,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
@@ -2454,21 +2454,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="35.55" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="23.55" spans="1:4">
@@ -2493,7 +2493,7 @@
         <v>202</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2565,7 +2565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2621,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -2638,16 +2638,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -2655,16 +2655,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -2672,16 +2672,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -2689,16 +2689,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -2706,21 +2706,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="35.55" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:4">
@@ -2731,10 +2731,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="23.55" spans="1:4">
@@ -2745,7 +2745,7 @@
         <v>209</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2817,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2873,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -2902,12 +2902,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>60</v>
@@ -2916,7 +2916,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -2924,16 +2924,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -2944,7 +2944,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -2958,10 +2958,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -2978,7 +2978,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -2995,7 +2995,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
@@ -3012,7 +3012,7 @@
         <v>221</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -3029,7 +3029,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -3038,7 +3038,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>227</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>64</v>
@@ -3077,7 +3077,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>229</v>
@@ -3094,21 +3094,21 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="35.55" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:4">
@@ -3119,10 +3119,10 @@
         <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:4">
@@ -3133,7 +3133,7 @@
         <v>231</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>64</v>
@@ -3155,7 +3155,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3206,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3262,10 +3262,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>229</v>
@@ -3296,10 +3296,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="11" ht="35.55" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:4">
@@ -3321,10 +3321,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="23.55" spans="1:4">
@@ -3335,7 +3335,7 @@
         <v>239</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -3412,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -3432,7 +3432,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -3446,16 +3446,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -3463,10 +3463,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="9" ht="35.55" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:4">
@@ -3488,10 +3488,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
@@ -3502,7 +3502,7 @@
         <v>244</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -3581,7 +3581,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -3598,7 +3598,7 @@
         <v>247</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>61</v>
@@ -3615,7 +3615,7 @@
         <v>249</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -3649,7 +3649,7 @@
         <v>254</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -3700,7 +3700,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -3714,10 +3714,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -3751,7 +3751,7 @@
         <v>265</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
@@ -3765,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -3785,7 +3785,7 @@
         <v>268</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -3802,7 +3802,7 @@
         <v>270</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>64</v>
@@ -3816,16 +3816,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
@@ -3833,21 +3833,21 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="35.55" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:4">
@@ -3858,10 +3858,10 @@
         <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="23.55" spans="1:4">
@@ -3872,7 +3872,7 @@
         <v>272</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>64</v>
@@ -3951,7 +3951,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -3968,7 +3968,7 @@
         <v>275</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -3982,10 +3982,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -3999,16 +3999,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -4016,16 +4016,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -4033,21 +4033,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="35.55" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:4">
@@ -4058,10 +4058,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:4">
@@ -4072,7 +4072,7 @@
         <v>278</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -4151,7 +4151,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -4168,7 +4168,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -4199,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -4219,7 +4219,7 @@
         <v>285</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -4236,7 +4236,7 @@
         <v>287</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
@@ -4253,7 +4253,7 @@
         <v>289</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -4284,16 +4284,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
@@ -4301,10 +4301,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="15" ht="35.55" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>294</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -4419,7 +4419,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -4436,7 +4436,7 @@
         <v>297</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -4467,10 +4467,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
@@ -4484,10 +4484,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="10" ht="35.55" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:4">
@@ -4509,10 +4509,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
@@ -4523,7 +4523,7 @@
         <v>302</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -4544,8 +4544,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4592,7 +4592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="23.55" spans="1:5">
@@ -4682,24 +4682,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>60</v>
@@ -4708,7 +4708,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -4716,16 +4716,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -4733,16 +4733,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
@@ -4750,21 +4750,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:5">
       <c r="A15" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4779,10 +4779,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="23.55" spans="1:4">
@@ -4790,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -4869,10 +4869,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -4889,7 +4889,7 @@
         <v>297</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -4906,7 +4906,7 @@
         <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -4920,16 +4920,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -4937,10 +4937,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="10" ht="35.55" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:4">
@@ -4962,10 +4962,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
@@ -4976,7 +4976,7 @@
         <v>308</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -5052,10 +5052,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>61</v>
@@ -5072,7 +5072,7 @@
         <v>311</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -5089,7 +5089,7 @@
         <v>313</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
@@ -5103,16 +5103,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -5120,10 +5120,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>64</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="10" ht="35.55" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:4">
@@ -5145,10 +5145,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:4">
@@ -5159,7 +5159,7 @@
         <v>316</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -5181,7 +5181,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5193,7 +5193,7 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5231,12 +5231,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>60</v>
@@ -5248,12 +5248,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -5262,15 +5262,15 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>60</v>
@@ -5279,7 +5279,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -5287,16 +5287,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -5307,13 +5307,13 @@
         <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -5321,16 +5321,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -5338,21 +5338,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="35.55" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:4">
@@ -5363,10 +5363,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="23.55" spans="1:4">
@@ -5374,10 +5374,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -5399,7 +5399,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5411,7 +5411,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5449,7 +5449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5466,12 +5466,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -5480,7 +5480,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -5491,13 +5491,13 @@
         <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:5">
@@ -5505,16 +5505,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -5522,16 +5522,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -5539,16 +5539,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:5">
@@ -5556,16 +5556,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -5573,16 +5573,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -5590,16 +5590,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
@@ -5607,7 +5607,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>67</v>
@@ -5616,7 +5616,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
@@ -5624,16 +5624,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="23.55" spans="1:5">
@@ -5641,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>60</v>
@@ -5650,7 +5650,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:5">
@@ -5658,7 +5658,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>70</v>
@@ -5667,7 +5667,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:5">
@@ -5675,7 +5675,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>70</v>
@@ -5684,15 +5684,15 @@
         <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>60</v>
@@ -5701,7 +5701,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:5">
@@ -5726,21 +5726,21 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="35.25" customHeight="1" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5754,10 +5754,10 @@
         <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:4">
@@ -5765,10 +5765,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>64</v>
@@ -5791,7 +5791,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5803,7 +5803,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5841,7 +5841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
@@ -5880,16 +5880,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -5897,16 +5897,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -5914,16 +5914,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -5931,21 +5931,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="35.55" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:4">
@@ -5956,10 +5956,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:4">
@@ -5967,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
@@ -6005,7 +6005,7 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6043,7 +6043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6068,13 +6068,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6099,21 +6099,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:4">
@@ -6124,10 +6124,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:4">
@@ -6135,10 +6135,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -6160,7 +6160,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -6171,7 +6171,7 @@
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6209,7 +6209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6226,12 +6226,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -6240,7 +6240,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="22.95" spans="1:5">
@@ -6248,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>60</v>
@@ -6257,7 +6257,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6265,21 +6265,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:4">
@@ -6290,10 +6290,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -6326,7 +6326,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -6338,7 +6338,7 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6398,16 +6398,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
@@ -6415,16 +6415,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6432,16 +6432,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -6449,21 +6449,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:4">
@@ -6474,10 +6474,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="23.55" spans="1:4">
@@ -6485,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
@@ -6510,7 +6510,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -6522,7 +6522,7 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6560,7 +6560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6585,13 +6585,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="22.35" spans="1:5">
@@ -6599,16 +6599,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -6616,21 +6616,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:4">
@@ -6641,10 +6641,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="23.55" spans="1:4">
@@ -6652,10 +6652,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>

--- a/数据库设计文档v1.2.xlsx
+++ b/数据库设计文档v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="826" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9815" tabRatio="826" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表目录" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
   <si>
     <t>论坛：数据库设计文档</t>
   </si>
@@ -691,7 +691,35 @@
     <t>说明：论坛帖子回复表</t>
   </si>
   <si>
-    <t>主题ID</t>
+    <t>s</t>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标识</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <t>标题</t>
@@ -706,7 +734,18 @@
     <t>回复内容</t>
   </si>
   <si>
-    <t>回复用户ID</t>
+    <r>
+      <t>回复用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
   </si>
   <si>
     <t>modified_on</t>
@@ -715,6 +754,26 @@
     <t>最后编辑时间</t>
   </si>
   <si>
+    <r>
+      <t>父级回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>状态, -1为将要删除</t>
+  </si>
+  <si>
     <t>PK_CYQBBS_Reply</t>
   </si>
   <si>
@@ -788,9 +847,6 @@
   </si>
   <si>
     <t>主题图标ID</t>
-  </si>
-  <si>
-    <t>state</t>
   </si>
   <si>
     <r>
@@ -846,6 +902,9 @@
     <t>说明：论坛帖子状态表，包括如精华贴、置顶贴，推荐贴等</t>
   </si>
   <si>
+    <t>主题ID</t>
+  </si>
+  <si>
     <t>state_type_id</t>
   </si>
   <si>
@@ -1118,9 +1177,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
@@ -1701,7 +1760,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2078,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2112,7 +2171,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2294,15 +2353,15 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="12.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
   </cols>
@@ -2330,12 +2389,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>57</v>
@@ -2361,7 +2420,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2377,8 +2436,8 @@
       <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>194</v>
+      <c r="E6" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
@@ -2394,25 +2453,25 @@
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:5">
+      <c r="E7" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>198</v>
+      <c r="E8" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2428,16 +2487,16 @@
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:5">
+      <c r="E9" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>86</v>
@@ -2445,11 +2504,11 @@
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:5">
+      <c r="E10" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -2462,40 +2521,74 @@
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" ht="35.55" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="12" ht="15.15" spans="1:5">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" ht="35.55" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:4">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="23.55" spans="1:4">
-      <c r="A14" s="5">
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2515,7 +2608,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2527,7 +2620,7 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2536,7 +2629,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2565,7 +2658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2582,12 +2675,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -2596,7 +2689,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
@@ -2613,7 +2706,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" ht="23.55" spans="1:5">
@@ -2630,7 +2723,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -2742,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>92</v>
@@ -2767,7 +2860,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2779,7 +2872,7 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2788,7 +2881,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2817,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2834,12 +2927,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -2848,7 +2941,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2856,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>60</v>
@@ -2865,7 +2958,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -2882,7 +2975,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -2890,19 +2983,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2936,24 +3029,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2961,30 +3054,30 @@
         <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
@@ -2992,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>86</v>
@@ -3001,24 +3094,24 @@
         <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:5">
@@ -3026,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>86</v>
@@ -3035,15 +3128,15 @@
         <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>60</v>
@@ -3052,7 +3145,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" ht="23.55" spans="1:5">
@@ -3060,16 +3153,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:5">
@@ -3080,13 +3173,13 @@
         <v>134</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:5">
@@ -3130,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>92</v>
@@ -3168,7 +3261,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3177,7 +3270,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3206,7 +3299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3223,7 +3316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3237,7 +3330,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:5">
@@ -3245,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>60</v>
@@ -3254,7 +3347,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -3271,7 +3364,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" ht="23.55" spans="1:5">
@@ -3282,13 +3375,13 @@
         <v>164</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -3305,7 +3398,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" ht="35.55" spans="1:1">
@@ -3332,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>92</v>
@@ -3369,7 +3462,7 @@
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3378,7 +3471,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3438,7 +3531,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="1" spans="1:5">
@@ -3472,7 +3565,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" ht="35.55" spans="1:1">
@@ -3499,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>92</v>
@@ -3535,7 +3628,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3544,7 +3637,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3595,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>112</v>
@@ -3604,7 +3697,7 @@
         <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="22.35" spans="1:5">
@@ -3612,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>112</v>
@@ -3621,7 +3714,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -3629,16 +3722,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -3646,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>112</v>
@@ -3655,7 +3748,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -3663,16 +3756,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -3680,16 +3773,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -3697,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>120</v>
@@ -3706,7 +3799,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -3723,7 +3816,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" ht="22.35" spans="1:5">
@@ -3740,7 +3833,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" ht="22.35" spans="1:5">
@@ -3748,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>73</v>
@@ -3757,7 +3850,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" ht="22.95" spans="1:5">
@@ -3774,7 +3867,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" ht="22.95" spans="1:5">
@@ -3782,7 +3875,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>73</v>
@@ -3791,7 +3884,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:5">
@@ -3799,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>73</v>
@@ -3808,7 +3901,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:5">
@@ -3869,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>92</v>
@@ -3905,7 +3998,7 @@
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3914,7 +4007,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3965,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>73</v>
@@ -3974,7 +4067,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -3991,7 +4084,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -4069,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>92</v>
@@ -4105,7 +4198,7 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4114,7 +4207,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4182,16 +4275,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -4208,7 +4301,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
@@ -4216,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>73</v>
@@ -4225,7 +4318,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
@@ -4233,7 +4326,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>73</v>
@@ -4242,7 +4335,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -4250,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>73</v>
@@ -4259,7 +4352,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:5">
@@ -4267,16 +4360,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -4310,7 +4403,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" ht="35.55" spans="1:1">
@@ -4337,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>92</v>
@@ -4373,7 +4466,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4382,7 +4475,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4433,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>73</v>
@@ -4442,7 +4535,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
@@ -4459,7 +4552,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -4476,7 +4569,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" ht="22.35" spans="1:5">
@@ -4493,7 +4586,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -4520,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>92</v>
@@ -4544,7 +4637,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4592,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4609,7 +4702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4694,7 +4787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4826,7 +4919,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4835,7 +4928,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4886,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>73</v>
@@ -4895,7 +4988,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" ht="22.95" spans="1:5">
@@ -4903,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>73</v>
@@ -4912,7 +5005,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -4946,7 +5039,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -4973,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>92</v>
@@ -5009,7 +5102,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5018,7 +5111,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5069,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>120</v>
@@ -5078,7 +5171,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" ht="23.55" spans="1:5">
@@ -5086,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>120</v>
@@ -5095,7 +5188,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -5129,7 +5222,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" ht="35.55" spans="1:1">
@@ -5156,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>92</v>
@@ -5231,7 +5324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5248,7 +5341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5265,7 +5358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5449,7 +5542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5466,7 +5559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5687,7 +5780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -5841,7 +5934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6043,7 +6136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6209,7 +6302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6226,7 +6319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6376,7 +6469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6560,7 +6653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
